--- a/biology/Zoologie/Asthenoptycha_iriodes/Asthenoptycha_iriodes.xlsx
+++ b/biology/Zoologie/Asthenoptycha_iriodes/Asthenoptycha_iriodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asthenoptycha iriodes est une espèce de lépidoptères (papillons) de la famille des Tortricidae. On la trouve en Australie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asthenoptycha iriodes est une espèce de lépidoptères (papillons) de la famille des Tortricidae. On la trouve en Australie.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce lépidoptère se nourrit de feuilles mortes[2].
-Les femelles ont des antennes et une têtes de couleur noire. Les ailes de ce papillons arborent un motif de couleur noir, gris, blanc cassé et de diverses nuances de brun[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lépidoptère se nourrit de feuilles mortes.
+Les femelles ont des antennes et une têtes de couleur noire. Les ailes de ce papillons arborent un motif de couleur noir, gris, blanc cassé et de diverses nuances de brun.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve notamment cette espèce de lépidoptère dans l'état de Victoria, ainsi que dans celui de Nouvelle-Galles du Sud, en Australie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve notamment cette espèce de lépidoptère dans l'état de Victoria, ainsi que dans celui de Nouvelle-Galles du Sud, en Australie.
 </t>
         </is>
       </c>
